--- a/דוחות/GANNT לפרויקט - שקד אלישר ושמשון.xlsx
+++ b/דוחות/GANNT לפרויקט - שקד אלישר ושמשון.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E8CF5B-AA5C-487A-931E-C7681C4C7E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D13C8F-7A51-4FD8-A453-E11644A72E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1016,6 +1016,15 @@
     <xf numFmtId="170" fontId="12" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="2"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1027,15 +1036,6 @@
     </xf>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1607,9 +1607,9 @@
   </sheetPr>
   <dimension ref="A1:ADS63"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" showRuler="0" zoomScale="25" zoomScaleNormal="25" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="DW34" sqref="A1:DW34"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" showRuler="0" topLeftCell="CS1" zoomScale="40" zoomScaleNormal="40" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1660,15 +1660,15 @@
         <v>26</v>
       </c>
       <c r="B3" s="37"/>
-      <c r="C3" s="102" t="s">
+      <c r="C3" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="103"/>
-      <c r="E3" s="101">
+      <c r="D3" s="99"/>
+      <c r="E3" s="104">
         <f>DATE(2021,10,10)</f>
         <v>44479</v>
       </c>
-      <c r="F3" s="101"/>
+      <c r="F3" s="104"/>
       <c r="G3" s="34"/>
       <c r="LE3"/>
       <c r="LF3"/>
@@ -1681,385 +1681,385 @@
         <v>27</v>
       </c>
       <c r="B4" s="34"/>
-      <c r="C4" s="102" t="s">
+      <c r="C4" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="103"/>
+      <c r="D4" s="99"/>
       <c r="E4" s="38">
         <v>1</v>
       </c>
       <c r="F4" s="34"/>
       <c r="G4" s="34"/>
-      <c r="I4" s="98">
+      <c r="I4" s="101">
         <f>I5</f>
         <v>44479</v>
       </c>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="98">
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="102"/>
+      <c r="N4" s="102"/>
+      <c r="O4" s="103"/>
+      <c r="P4" s="101">
         <f>P5</f>
         <v>44486</v>
       </c>
-      <c r="Q4" s="99"/>
-      <c r="R4" s="99"/>
-      <c r="S4" s="99"/>
-      <c r="T4" s="99"/>
-      <c r="U4" s="99"/>
-      <c r="V4" s="100"/>
-      <c r="W4" s="98">
+      <c r="Q4" s="102"/>
+      <c r="R4" s="102"/>
+      <c r="S4" s="102"/>
+      <c r="T4" s="102"/>
+      <c r="U4" s="102"/>
+      <c r="V4" s="103"/>
+      <c r="W4" s="101">
         <f>W5</f>
         <v>44493</v>
       </c>
-      <c r="X4" s="99"/>
-      <c r="Y4" s="99"/>
-      <c r="Z4" s="99"/>
-      <c r="AA4" s="99"/>
-      <c r="AB4" s="99"/>
-      <c r="AC4" s="100"/>
-      <c r="AD4" s="98">
+      <c r="X4" s="102"/>
+      <c r="Y4" s="102"/>
+      <c r="Z4" s="102"/>
+      <c r="AA4" s="102"/>
+      <c r="AB4" s="102"/>
+      <c r="AC4" s="103"/>
+      <c r="AD4" s="101">
         <f>AD5</f>
         <v>44500</v>
       </c>
-      <c r="AE4" s="99"/>
-      <c r="AF4" s="99"/>
-      <c r="AG4" s="99"/>
-      <c r="AH4" s="99"/>
-      <c r="AI4" s="99"/>
-      <c r="AJ4" s="100"/>
-      <c r="AK4" s="98">
+      <c r="AE4" s="102"/>
+      <c r="AF4" s="102"/>
+      <c r="AG4" s="102"/>
+      <c r="AH4" s="102"/>
+      <c r="AI4" s="102"/>
+      <c r="AJ4" s="103"/>
+      <c r="AK4" s="101">
         <f>AK5</f>
         <v>44507</v>
       </c>
-      <c r="AL4" s="99"/>
-      <c r="AM4" s="99"/>
-      <c r="AN4" s="99"/>
-      <c r="AO4" s="99"/>
-      <c r="AP4" s="99"/>
-      <c r="AQ4" s="100"/>
-      <c r="AR4" s="98">
+      <c r="AL4" s="102"/>
+      <c r="AM4" s="102"/>
+      <c r="AN4" s="102"/>
+      <c r="AO4" s="102"/>
+      <c r="AP4" s="102"/>
+      <c r="AQ4" s="103"/>
+      <c r="AR4" s="101">
         <f>AR5</f>
         <v>44514</v>
       </c>
-      <c r="AS4" s="99"/>
-      <c r="AT4" s="99"/>
-      <c r="AU4" s="99"/>
-      <c r="AV4" s="99"/>
-      <c r="AW4" s="99"/>
-      <c r="AX4" s="100"/>
-      <c r="AY4" s="98">
+      <c r="AS4" s="102"/>
+      <c r="AT4" s="102"/>
+      <c r="AU4" s="102"/>
+      <c r="AV4" s="102"/>
+      <c r="AW4" s="102"/>
+      <c r="AX4" s="103"/>
+      <c r="AY4" s="101">
         <f>AY5</f>
         <v>44521</v>
       </c>
-      <c r="AZ4" s="99"/>
-      <c r="BA4" s="99"/>
-      <c r="BB4" s="99"/>
-      <c r="BC4" s="99"/>
-      <c r="BD4" s="99"/>
-      <c r="BE4" s="100"/>
-      <c r="BF4" s="98">
+      <c r="AZ4" s="102"/>
+      <c r="BA4" s="102"/>
+      <c r="BB4" s="102"/>
+      <c r="BC4" s="102"/>
+      <c r="BD4" s="102"/>
+      <c r="BE4" s="103"/>
+      <c r="BF4" s="101">
         <f>BF5</f>
         <v>44528</v>
       </c>
-      <c r="BG4" s="99"/>
-      <c r="BH4" s="99"/>
-      <c r="BI4" s="99"/>
-      <c r="BJ4" s="99"/>
-      <c r="BK4" s="99"/>
-      <c r="BL4" s="100"/>
-      <c r="BM4" s="98">
+      <c r="BG4" s="102"/>
+      <c r="BH4" s="102"/>
+      <c r="BI4" s="102"/>
+      <c r="BJ4" s="102"/>
+      <c r="BK4" s="102"/>
+      <c r="BL4" s="103"/>
+      <c r="BM4" s="101">
         <f>BM5</f>
         <v>44535</v>
       </c>
-      <c r="BN4" s="99"/>
-      <c r="BO4" s="99"/>
-      <c r="BP4" s="99"/>
-      <c r="BQ4" s="99"/>
-      <c r="BR4" s="99"/>
-      <c r="BS4" s="100"/>
-      <c r="BT4" s="98">
+      <c r="BN4" s="102"/>
+      <c r="BO4" s="102"/>
+      <c r="BP4" s="102"/>
+      <c r="BQ4" s="102"/>
+      <c r="BR4" s="102"/>
+      <c r="BS4" s="103"/>
+      <c r="BT4" s="101">
         <f>BT5</f>
         <v>44542</v>
       </c>
-      <c r="BU4" s="99"/>
-      <c r="BV4" s="99"/>
-      <c r="BW4" s="99"/>
-      <c r="BX4" s="99"/>
-      <c r="BY4" s="99"/>
-      <c r="BZ4" s="100"/>
-      <c r="CA4" s="98">
+      <c r="BU4" s="102"/>
+      <c r="BV4" s="102"/>
+      <c r="BW4" s="102"/>
+      <c r="BX4" s="102"/>
+      <c r="BY4" s="102"/>
+      <c r="BZ4" s="103"/>
+      <c r="CA4" s="101">
         <f>CA5</f>
         <v>44549</v>
       </c>
-      <c r="CB4" s="99"/>
-      <c r="CC4" s="99"/>
-      <c r="CD4" s="99"/>
-      <c r="CE4" s="99"/>
-      <c r="CF4" s="99"/>
-      <c r="CG4" s="100"/>
-      <c r="CH4" s="98">
+      <c r="CB4" s="102"/>
+      <c r="CC4" s="102"/>
+      <c r="CD4" s="102"/>
+      <c r="CE4" s="102"/>
+      <c r="CF4" s="102"/>
+      <c r="CG4" s="103"/>
+      <c r="CH4" s="101">
         <f>CH5</f>
         <v>44556</v>
       </c>
-      <c r="CI4" s="99"/>
-      <c r="CJ4" s="99"/>
-      <c r="CK4" s="99"/>
-      <c r="CL4" s="99"/>
-      <c r="CM4" s="99"/>
-      <c r="CN4" s="100"/>
-      <c r="CO4" s="98">
+      <c r="CI4" s="102"/>
+      <c r="CJ4" s="102"/>
+      <c r="CK4" s="102"/>
+      <c r="CL4" s="102"/>
+      <c r="CM4" s="102"/>
+      <c r="CN4" s="103"/>
+      <c r="CO4" s="101">
         <f>CO5</f>
         <v>44563</v>
       </c>
-      <c r="CP4" s="99"/>
-      <c r="CQ4" s="99"/>
-      <c r="CR4" s="99"/>
-      <c r="CS4" s="99"/>
-      <c r="CT4" s="99"/>
-      <c r="CU4" s="100"/>
-      <c r="CV4" s="98">
+      <c r="CP4" s="102"/>
+      <c r="CQ4" s="102"/>
+      <c r="CR4" s="102"/>
+      <c r="CS4" s="102"/>
+      <c r="CT4" s="102"/>
+      <c r="CU4" s="103"/>
+      <c r="CV4" s="101">
         <f>CV5</f>
         <v>44570</v>
       </c>
-      <c r="CW4" s="99"/>
-      <c r="CX4" s="99"/>
-      <c r="CY4" s="99"/>
-      <c r="CZ4" s="99"/>
-      <c r="DA4" s="99"/>
-      <c r="DB4" s="100"/>
-      <c r="DC4" s="98">
+      <c r="CW4" s="102"/>
+      <c r="CX4" s="102"/>
+      <c r="CY4" s="102"/>
+      <c r="CZ4" s="102"/>
+      <c r="DA4" s="102"/>
+      <c r="DB4" s="103"/>
+      <c r="DC4" s="101">
         <f>DC5</f>
         <v>44577</v>
       </c>
-      <c r="DD4" s="99"/>
-      <c r="DE4" s="99"/>
-      <c r="DF4" s="99"/>
-      <c r="DG4" s="99"/>
-      <c r="DH4" s="99"/>
-      <c r="DI4" s="100"/>
-      <c r="DJ4" s="98">
+      <c r="DD4" s="102"/>
+      <c r="DE4" s="102"/>
+      <c r="DF4" s="102"/>
+      <c r="DG4" s="102"/>
+      <c r="DH4" s="102"/>
+      <c r="DI4" s="103"/>
+      <c r="DJ4" s="101">
         <f>DJ5</f>
         <v>44584</v>
       </c>
-      <c r="DK4" s="99"/>
-      <c r="DL4" s="99"/>
-      <c r="DM4" s="99"/>
-      <c r="DN4" s="99"/>
-      <c r="DO4" s="99"/>
-      <c r="DP4" s="100"/>
-      <c r="DQ4" s="98">
+      <c r="DK4" s="102"/>
+      <c r="DL4" s="102"/>
+      <c r="DM4" s="102"/>
+      <c r="DN4" s="102"/>
+      <c r="DO4" s="102"/>
+      <c r="DP4" s="103"/>
+      <c r="DQ4" s="101">
         <f>DQ5</f>
         <v>44591</v>
       </c>
-      <c r="DR4" s="99"/>
-      <c r="DS4" s="99"/>
-      <c r="DT4" s="99"/>
-      <c r="DU4" s="99"/>
-      <c r="DV4" s="99"/>
-      <c r="DW4" s="100"/>
-      <c r="DX4" s="98">
+      <c r="DR4" s="102"/>
+      <c r="DS4" s="102"/>
+      <c r="DT4" s="102"/>
+      <c r="DU4" s="102"/>
+      <c r="DV4" s="102"/>
+      <c r="DW4" s="103"/>
+      <c r="DX4" s="101">
         <f>DX5</f>
         <v>44598</v>
       </c>
-      <c r="DY4" s="99"/>
-      <c r="DZ4" s="99"/>
-      <c r="EA4" s="99"/>
-      <c r="EB4" s="99"/>
-      <c r="EC4" s="99"/>
-      <c r="ED4" s="100"/>
-      <c r="EE4" s="98">
+      <c r="DY4" s="102"/>
+      <c r="DZ4" s="102"/>
+      <c r="EA4" s="102"/>
+      <c r="EB4" s="102"/>
+      <c r="EC4" s="102"/>
+      <c r="ED4" s="103"/>
+      <c r="EE4" s="101">
         <f>EE5</f>
         <v>44605</v>
       </c>
-      <c r="EF4" s="99"/>
-      <c r="EG4" s="99"/>
-      <c r="EH4" s="99"/>
-      <c r="EI4" s="99"/>
-      <c r="EJ4" s="99"/>
-      <c r="EK4" s="100"/>
-      <c r="EL4" s="98">
+      <c r="EF4" s="102"/>
+      <c r="EG4" s="102"/>
+      <c r="EH4" s="102"/>
+      <c r="EI4" s="102"/>
+      <c r="EJ4" s="102"/>
+      <c r="EK4" s="103"/>
+      <c r="EL4" s="101">
         <f>EL5</f>
         <v>44612</v>
       </c>
-      <c r="EM4" s="99"/>
-      <c r="EN4" s="99"/>
-      <c r="EO4" s="99"/>
-      <c r="EP4" s="99"/>
-      <c r="EQ4" s="99"/>
-      <c r="ER4" s="100"/>
-      <c r="ES4" s="98">
+      <c r="EM4" s="102"/>
+      <c r="EN4" s="102"/>
+      <c r="EO4" s="102"/>
+      <c r="EP4" s="102"/>
+      <c r="EQ4" s="102"/>
+      <c r="ER4" s="103"/>
+      <c r="ES4" s="101">
         <f>ES5</f>
         <v>44619</v>
       </c>
-      <c r="ET4" s="99"/>
-      <c r="EU4" s="99"/>
-      <c r="EV4" s="99"/>
-      <c r="EW4" s="99"/>
-      <c r="EX4" s="99"/>
-      <c r="EY4" s="100"/>
-      <c r="EZ4" s="98">
+      <c r="ET4" s="102"/>
+      <c r="EU4" s="102"/>
+      <c r="EV4" s="102"/>
+      <c r="EW4" s="102"/>
+      <c r="EX4" s="102"/>
+      <c r="EY4" s="103"/>
+      <c r="EZ4" s="101">
         <f>EZ5</f>
         <v>44626</v>
       </c>
-      <c r="FA4" s="99"/>
-      <c r="FB4" s="99"/>
-      <c r="FC4" s="99"/>
-      <c r="FD4" s="99"/>
-      <c r="FE4" s="99"/>
-      <c r="FF4" s="100"/>
-      <c r="FG4" s="98">
+      <c r="FA4" s="102"/>
+      <c r="FB4" s="102"/>
+      <c r="FC4" s="102"/>
+      <c r="FD4" s="102"/>
+      <c r="FE4" s="102"/>
+      <c r="FF4" s="103"/>
+      <c r="FG4" s="101">
         <f>FG5</f>
         <v>44633</v>
       </c>
-      <c r="FH4" s="99"/>
-      <c r="FI4" s="99"/>
-      <c r="FJ4" s="99"/>
-      <c r="FK4" s="99"/>
-      <c r="FL4" s="99"/>
-      <c r="FM4" s="100"/>
-      <c r="FN4" s="98">
+      <c r="FH4" s="102"/>
+      <c r="FI4" s="102"/>
+      <c r="FJ4" s="102"/>
+      <c r="FK4" s="102"/>
+      <c r="FL4" s="102"/>
+      <c r="FM4" s="103"/>
+      <c r="FN4" s="101">
         <f>FN5</f>
         <v>44640</v>
       </c>
-      <c r="FO4" s="99"/>
-      <c r="FP4" s="99"/>
-      <c r="FQ4" s="99"/>
-      <c r="FR4" s="99"/>
-      <c r="FS4" s="99"/>
-      <c r="FT4" s="100"/>
-      <c r="FU4" s="98">
+      <c r="FO4" s="102"/>
+      <c r="FP4" s="102"/>
+      <c r="FQ4" s="102"/>
+      <c r="FR4" s="102"/>
+      <c r="FS4" s="102"/>
+      <c r="FT4" s="103"/>
+      <c r="FU4" s="101">
         <f>FU5</f>
         <v>44647</v>
       </c>
-      <c r="FV4" s="99"/>
-      <c r="FW4" s="99"/>
-      <c r="FX4" s="99"/>
-      <c r="FY4" s="99"/>
-      <c r="FZ4" s="99"/>
-      <c r="GA4" s="100"/>
-      <c r="GB4" s="98">
+      <c r="FV4" s="102"/>
+      <c r="FW4" s="102"/>
+      <c r="FX4" s="102"/>
+      <c r="FY4" s="102"/>
+      <c r="FZ4" s="102"/>
+      <c r="GA4" s="103"/>
+      <c r="GB4" s="101">
         <f>GB5</f>
         <v>44654</v>
       </c>
-      <c r="GC4" s="99"/>
-      <c r="GD4" s="99"/>
-      <c r="GE4" s="99"/>
-      <c r="GF4" s="99"/>
-      <c r="GG4" s="99"/>
-      <c r="GH4" s="100"/>
-      <c r="GI4" s="98">
+      <c r="GC4" s="102"/>
+      <c r="GD4" s="102"/>
+      <c r="GE4" s="102"/>
+      <c r="GF4" s="102"/>
+      <c r="GG4" s="102"/>
+      <c r="GH4" s="103"/>
+      <c r="GI4" s="101">
         <f>GI5</f>
         <v>44661</v>
       </c>
-      <c r="GJ4" s="99"/>
-      <c r="GK4" s="99"/>
-      <c r="GL4" s="99"/>
-      <c r="GM4" s="99"/>
-      <c r="GN4" s="99"/>
-      <c r="GO4" s="100"/>
-      <c r="GP4" s="98">
+      <c r="GJ4" s="102"/>
+      <c r="GK4" s="102"/>
+      <c r="GL4" s="102"/>
+      <c r="GM4" s="102"/>
+      <c r="GN4" s="102"/>
+      <c r="GO4" s="103"/>
+      <c r="GP4" s="101">
         <f>GP5</f>
         <v>44668</v>
       </c>
-      <c r="GQ4" s="99"/>
-      <c r="GR4" s="99"/>
-      <c r="GS4" s="99"/>
-      <c r="GT4" s="99"/>
-      <c r="GU4" s="99"/>
-      <c r="GV4" s="100"/>
-      <c r="GW4" s="98">
+      <c r="GQ4" s="102"/>
+      <c r="GR4" s="102"/>
+      <c r="GS4" s="102"/>
+      <c r="GT4" s="102"/>
+      <c r="GU4" s="102"/>
+      <c r="GV4" s="103"/>
+      <c r="GW4" s="101">
         <f>GW5</f>
         <v>44675</v>
       </c>
-      <c r="GX4" s="99"/>
-      <c r="GY4" s="99"/>
-      <c r="GZ4" s="99"/>
-      <c r="HA4" s="99"/>
-      <c r="HB4" s="99"/>
-      <c r="HC4" s="100"/>
-      <c r="HD4" s="98">
+      <c r="GX4" s="102"/>
+      <c r="GY4" s="102"/>
+      <c r="GZ4" s="102"/>
+      <c r="HA4" s="102"/>
+      <c r="HB4" s="102"/>
+      <c r="HC4" s="103"/>
+      <c r="HD4" s="101">
         <f>HD5</f>
         <v>44682</v>
       </c>
-      <c r="HE4" s="99"/>
-      <c r="HF4" s="99"/>
-      <c r="HG4" s="99"/>
-      <c r="HH4" s="99"/>
-      <c r="HI4" s="99"/>
-      <c r="HJ4" s="100"/>
-      <c r="HK4" s="98">
+      <c r="HE4" s="102"/>
+      <c r="HF4" s="102"/>
+      <c r="HG4" s="102"/>
+      <c r="HH4" s="102"/>
+      <c r="HI4" s="102"/>
+      <c r="HJ4" s="103"/>
+      <c r="HK4" s="101">
         <f>HK5</f>
         <v>44689</v>
       </c>
-      <c r="HL4" s="99"/>
-      <c r="HM4" s="99"/>
-      <c r="HN4" s="99"/>
-      <c r="HO4" s="99"/>
-      <c r="HP4" s="99"/>
-      <c r="HQ4" s="100"/>
-      <c r="HR4" s="98">
+      <c r="HL4" s="102"/>
+      <c r="HM4" s="102"/>
+      <c r="HN4" s="102"/>
+      <c r="HO4" s="102"/>
+      <c r="HP4" s="102"/>
+      <c r="HQ4" s="103"/>
+      <c r="HR4" s="101">
         <f>HR5</f>
         <v>44696</v>
       </c>
-      <c r="HS4" s="99"/>
-      <c r="HT4" s="99"/>
-      <c r="HU4" s="99"/>
-      <c r="HV4" s="99"/>
-      <c r="HW4" s="99"/>
-      <c r="HX4" s="100"/>
-      <c r="HY4" s="98">
+      <c r="HS4" s="102"/>
+      <c r="HT4" s="102"/>
+      <c r="HU4" s="102"/>
+      <c r="HV4" s="102"/>
+      <c r="HW4" s="102"/>
+      <c r="HX4" s="103"/>
+      <c r="HY4" s="101">
         <f>HY5</f>
         <v>44703</v>
       </c>
-      <c r="HZ4" s="99"/>
-      <c r="IA4" s="99"/>
-      <c r="IB4" s="99"/>
-      <c r="IC4" s="99"/>
-      <c r="ID4" s="99"/>
-      <c r="IE4" s="100"/>
-      <c r="IF4" s="98">
+      <c r="HZ4" s="102"/>
+      <c r="IA4" s="102"/>
+      <c r="IB4" s="102"/>
+      <c r="IC4" s="102"/>
+      <c r="ID4" s="102"/>
+      <c r="IE4" s="103"/>
+      <c r="IF4" s="101">
         <f>IF5</f>
         <v>44710</v>
       </c>
-      <c r="IG4" s="99"/>
-      <c r="IH4" s="99"/>
-      <c r="II4" s="99"/>
-      <c r="IJ4" s="99"/>
-      <c r="IK4" s="99"/>
-      <c r="IL4" s="100"/>
-      <c r="IM4" s="98">
+      <c r="IG4" s="102"/>
+      <c r="IH4" s="102"/>
+      <c r="II4" s="102"/>
+      <c r="IJ4" s="102"/>
+      <c r="IK4" s="102"/>
+      <c r="IL4" s="103"/>
+      <c r="IM4" s="101">
         <f>IM5</f>
         <v>44717</v>
       </c>
-      <c r="IN4" s="99"/>
-      <c r="IO4" s="99"/>
-      <c r="IP4" s="99"/>
-      <c r="IQ4" s="99"/>
-      <c r="IR4" s="99"/>
-      <c r="IS4" s="100"/>
-      <c r="IT4" s="98">
+      <c r="IN4" s="102"/>
+      <c r="IO4" s="102"/>
+      <c r="IP4" s="102"/>
+      <c r="IQ4" s="102"/>
+      <c r="IR4" s="102"/>
+      <c r="IS4" s="103"/>
+      <c r="IT4" s="101">
         <f>IT5</f>
         <v>44724</v>
       </c>
-      <c r="IU4" s="99"/>
-      <c r="IV4" s="99"/>
-      <c r="IW4" s="99"/>
-      <c r="IX4" s="99"/>
-      <c r="IY4" s="99"/>
-      <c r="IZ4" s="100"/>
-      <c r="JA4" s="98">
+      <c r="IU4" s="102"/>
+      <c r="IV4" s="102"/>
+      <c r="IW4" s="102"/>
+      <c r="IX4" s="102"/>
+      <c r="IY4" s="102"/>
+      <c r="IZ4" s="103"/>
+      <c r="JA4" s="101">
         <f>JA5</f>
         <v>44731</v>
       </c>
-      <c r="JB4" s="99"/>
-      <c r="JC4" s="99"/>
-      <c r="JD4" s="99"/>
-      <c r="JE4" s="99"/>
-      <c r="JF4" s="99"/>
-      <c r="JG4" s="100"/>
+      <c r="JB4" s="102"/>
+      <c r="JC4" s="102"/>
+      <c r="JD4" s="102"/>
+      <c r="JE4" s="102"/>
+      <c r="JF4" s="102"/>
+      <c r="JG4" s="103"/>
       <c r="LE4"/>
       <c r="LF4"/>
       <c r="LG4"/>
@@ -2544,12 +2544,12 @@
       <c r="A5" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
       <c r="I5" s="7">
         <f>Project_Start-WEEKDAY(Project_Start,1)+1+7*(Display_Week-1)</f>
         <v>44479</v>
@@ -7275,7 +7275,7 @@
       </c>
       <c r="C10" s="48"/>
       <c r="D10" s="49">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="E10" s="79">
         <f>DATE(2021,10,26)</f>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="C11" s="48"/>
       <c r="D11" s="49">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="E11" s="79">
         <f>DATE(2021,10,23)</f>
@@ -37286,33 +37286,6 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="BM4:BS4"/>
-    <mergeCell ref="BT4:BZ4"/>
-    <mergeCell ref="CA4:CG4"/>
-    <mergeCell ref="CH4:CN4"/>
-    <mergeCell ref="CO4:CU4"/>
-    <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="BF4:BL4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:V4"/>
-    <mergeCell ref="W4:AC4"/>
-    <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="EE4:EK4"/>
-    <mergeCell ref="EL4:ER4"/>
-    <mergeCell ref="ES4:EY4"/>
-    <mergeCell ref="EZ4:FF4"/>
-    <mergeCell ref="FG4:FM4"/>
-    <mergeCell ref="CV4:DB4"/>
-    <mergeCell ref="DC4:DI4"/>
-    <mergeCell ref="DJ4:DP4"/>
-    <mergeCell ref="DQ4:DW4"/>
-    <mergeCell ref="DX4:ED4"/>
     <mergeCell ref="IF4:IL4"/>
     <mergeCell ref="IM4:IS4"/>
     <mergeCell ref="IT4:IZ4"/>
@@ -37327,6 +37300,33 @@
     <mergeCell ref="HK4:HQ4"/>
     <mergeCell ref="HR4:HX4"/>
     <mergeCell ref="HY4:IE4"/>
+    <mergeCell ref="CV4:DB4"/>
+    <mergeCell ref="DC4:DI4"/>
+    <mergeCell ref="DJ4:DP4"/>
+    <mergeCell ref="DQ4:DW4"/>
+    <mergeCell ref="DX4:ED4"/>
+    <mergeCell ref="EE4:EK4"/>
+    <mergeCell ref="EL4:ER4"/>
+    <mergeCell ref="ES4:EY4"/>
+    <mergeCell ref="EZ4:FF4"/>
+    <mergeCell ref="FG4:FM4"/>
+    <mergeCell ref="AY4:BE4"/>
+    <mergeCell ref="BF4:BL4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:V4"/>
+    <mergeCell ref="W4:AC4"/>
+    <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="BM4:BS4"/>
+    <mergeCell ref="BT4:BZ4"/>
+    <mergeCell ref="CA4:CG4"/>
+    <mergeCell ref="CH4:CN4"/>
+    <mergeCell ref="CO4:CU4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D28 D30:D34">
     <cfRule type="dataBar" priority="14">
